--- a/Table_PHS_review.xlsx
+++ b/Table_PHS_review.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" tabRatio="355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$R$2</definedName>
     <definedName name="btbl1fn1" localSheetId="1">Sheet2!$G$2</definedName>
     <definedName name="bTBLFN1" localSheetId="1">Sheet2!$E$1</definedName>
     <definedName name="bTBLFN2" localSheetId="1">Sheet2!$F$1</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="141">
   <si>
     <t>QTL</t>
   </si>
@@ -329,6 +330,133 @@
   </si>
   <si>
     <t>122 BILS, 536 BC6F2</t>
+  </si>
+  <si>
+    <t>qSd-1 , qSd-2, qSd-1-1, qSd-1-2</t>
+  </si>
+  <si>
+    <t>44 CSSLs, 87 F2 RILs</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s00122-011-1753-y#Sec2</t>
+  </si>
+  <si>
+    <t>Controlled condition (Short Day) equipment</t>
+  </si>
+  <si>
+    <t>Koshihikari X Nona Bokra, F2 population of SL506 × Koshihikari</t>
+  </si>
+  <si>
+    <t>Sdr6, Sdr9, Sdr10</t>
+  </si>
+  <si>
+    <t>Seed Dromancy</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/content/pdf/10.1007/s00122-013-2137-2.pdf</t>
+  </si>
+  <si>
+    <t>F7 RILs, 181 individuals</t>
+  </si>
+  <si>
+    <t>qLTG-7, qLTG-9, qLTG-12, qLTG-7, qLTG-9 (Os09g0395600, Os09g0396300,
+Os09g0396900, Os09g0395700 and Os09g0395800)</t>
+  </si>
+  <si>
+    <t>Field conditions</t>
+  </si>
+  <si>
+    <t>Nipponbare X Kasalath</t>
+  </si>
+  <si>
+    <t>qSD-3.1, qSD-6.1, qSD-7.1, qSD-10.1</t>
+  </si>
+  <si>
+    <t>98 BILs, 4 CSSLs</t>
+  </si>
+  <si>
+    <t>https://sci-hub.se/https://doi.org/10.1016/S1672-6308(13)60123-7</t>
+  </si>
+  <si>
+    <t>Seed Dormancy</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s00425-013-1991-0</t>
+  </si>
+  <si>
+    <t>Jiucaiqing (Japonica) X IR26 (Indica)</t>
+  </si>
+  <si>
+    <t>150 RILs (F2:9)</t>
+  </si>
+  <si>
+    <t>qSD1.1, qSD2.2, qSD4.1, qSD4.2, qSD5.1, qSD2.1, qSD3.1, qSD7.1</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/content/pdf/10.1007/s12892-015-0114-9.pdf</t>
+  </si>
+  <si>
+    <t>160 RILs</t>
+  </si>
+  <si>
+    <t>Tong88-7 X Millyang23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> qLTG3, qLTG7-1, qLTG7-2, qLTG12,  qLTG8</t>
+  </si>
+  <si>
+    <t>SSRs, STS</t>
+  </si>
+  <si>
+    <t>240 RILs</t>
+  </si>
+  <si>
+    <t>ZS97 X MH63 (Hybrid Shanyou 63)</t>
+  </si>
+  <si>
+    <t>qDGE1, qDGE5a, qDGE5b, qDGE7</t>
+  </si>
+  <si>
+    <t>Hayamasari (Japonica) X Italica Livorno (Japonica)</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s10681-010-0327-4#Sec7</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s00122-003-1509-4#Sec2</t>
+  </si>
+  <si>
+    <t>F1 BC1F1, 122 BILs BC1F5</t>
+  </si>
+  <si>
+    <t>qLTG-3-1, qLTG-3-2, qLTG-4</t>
+  </si>
+  <si>
+    <t>BC1</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/genetics/article/166/3/1503/6050471?login=true#236962316</t>
+  </si>
+  <si>
+    <t>EM93-1 X EM93-1 (indica type Breeding line) X SS18-2  (indica wild type weedy rice)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qSDS-4, qSDS-6, qSDS-7, qSDS-8, qSDS-12 </t>
+  </si>
+  <si>
+    <t>Green House condition</t>
+  </si>
+  <si>
+    <t>SS18-2 X EM93-1</t>
+  </si>
+  <si>
+    <t>F1, 156 BC1</t>
+  </si>
+  <si>
+    <t>qSD4, qSD7-1, qSD7-2, qSD8, qSD12</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s00122-005-1939-2#Abs1</t>
   </si>
 </sst>
 </file>
@@ -395,19 +523,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,14 +603,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -501,6 +622,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -782,31 +910,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" customWidth="1"/>
-    <col min="3" max="3" width="168.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -835,581 +963,779 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="18">
         <v>289</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="18">
         <v>2003</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+    </row>
+    <row r="4" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="18">
         <v>441</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="18">
         <v>2020</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+    </row>
+    <row r="5" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-    </row>
-    <row r="7" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+    </row>
+    <row r="7" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="20">
         <v>2</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="20">
         <v>2018</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="18">
         <v>5</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="18">
         <v>2020</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+    <row r="9" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="18">
         <v>2</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="18">
         <v>2010</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+    <row r="10" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="20">
         <v>5</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="20">
         <v>1998</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
+    <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="8">
         <v>5</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="8">
         <v>2001</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="20">
         <v>4</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="20">
         <v>2004</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="20">
         <v>3</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="20">
         <v>2005</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="20">
         <v>5</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="20">
         <v>2006</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+    <row r="15" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="18">
         <v>3</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="18">
         <v>2008</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C16" s="11" t="s">
+    <row r="16" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="18">
         <v>17</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="18">
         <v>2000</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="9" t="s">
+    <row r="17" spans="2:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="18">
         <v>2003</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
+    <row r="18" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="8">
         <v>2</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="8">
         <v>2006</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
+    <row r="19" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="8">
         <v>11</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="8">
         <v>2006</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11" t="s">
+    <row r="20" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="15">
         <v>13</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="15">
         <v>2009</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11" t="s">
+    <row r="21" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11" t="s">
+    </row>
+    <row r="22" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13" t="s">
+    </row>
+    <row r="23" spans="2:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13" t="s">
+      <c r="C23" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13" t="s">
+      <c r="F23" s="20">
+        <v>4</v>
+      </c>
+      <c r="G23" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="20">
         <v>2010</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C24" s="11"/>
+    </row>
+    <row r="24" spans="2:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="20">
+        <v>3</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="20">
+        <v>2012</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="8">
+        <v>5</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="8">
+        <v>2013</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="20">
+        <v>4</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="20">
+        <v>2013</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="20">
+        <v>8</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="20">
+        <v>2014</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="8">
+        <v>5</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" s="8">
+        <v>2015</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="20">
+        <v>4</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="I29" s="20">
+        <v>2011</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="8">
+        <v>3</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I30" s="8">
+        <v>2004</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="20">
+        <v>5</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="I31" s="20">
+        <v>2004</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="20">
+        <v>5</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="I32" s="20">
+        <v>2005</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:R2"/>
   <hyperlinks>
     <hyperlink ref="J4" r:id="rId1"/>
     <hyperlink ref="J7" r:id="rId2"/>
@@ -1427,6 +1753,15 @@
     <hyperlink ref="J19" r:id="rId14"/>
     <hyperlink ref="J20" r:id="rId15"/>
     <hyperlink ref="J23" r:id="rId16"/>
+    <hyperlink ref="J24" r:id="rId17" location="Sec2"/>
+    <hyperlink ref="J25" r:id="rId18"/>
+    <hyperlink ref="J26" r:id="rId19"/>
+    <hyperlink ref="J27" r:id="rId20"/>
+    <hyperlink ref="J28" r:id="rId21"/>
+    <hyperlink ref="J29" r:id="rId22" location="Sec7"/>
+    <hyperlink ref="J30" r:id="rId23" location="Sec2"/>
+    <hyperlink ref="J31" r:id="rId24" location="236962316"/>
+    <hyperlink ref="J32" r:id="rId25" location="Abs1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1449,24 +1784,24 @@
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="6"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="16"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="17"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1477,24 +1812,24 @@
       <c r="A3" s="2"/>
       <c r="B3" s="6"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="6"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="16"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="17"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1506,9 +1841,9 @@
       <c r="B5" s="6"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="16"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="17"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1519,24 +1854,24 @@
       <c r="A6" s="2"/>
       <c r="B6" s="6"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="16"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="17"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1547,24 +1882,24 @@
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="16"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="17"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1576,9 +1911,9 @@
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="16"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="17"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1589,24 +1924,24 @@
       <c r="A11" s="2"/>
       <c r="B11" s="6"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="16"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="17"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1618,9 +1953,9 @@
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="16"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="17"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1631,24 +1966,24 @@
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="16"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="17"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1657,9 +1992,9 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
-      <c r="E16" s="16"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="17"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1668,9 +2003,9 @@
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
-      <c r="E17" s="16"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="17"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1678,21 +2013,21 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
-      <c r="E19" s="16"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="17"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1701,9 +2036,9 @@
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
-      <c r="E20" s="16"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="17"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1712,9 +2047,9 @@
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
-      <c r="E21" s="16"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="17"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1722,21 +2057,21 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D23" s="2"/>
-      <c r="E23" s="16"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="17"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1745,9 +2080,9 @@
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D24" s="2"/>
-      <c r="E24" s="16"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="17"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1756,9 +2091,9 @@
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D25" s="2"/>
-      <c r="E25" s="16"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="17"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1767,9 +2102,9 @@
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D26" s="2"/>
-      <c r="E26" s="16"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="17"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1777,21 +2112,21 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D28" s="2"/>
-      <c r="E28" s="16"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="17"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1800,9 +2135,9 @@
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D29" s="2"/>
-      <c r="E29" s="16"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="17"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1811,9 +2146,9 @@
     </row>
     <row r="30" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D30" s="2"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="17"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -1822,9 +2157,9 @@
     </row>
     <row r="31" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D31" s="1"/>
-      <c r="E31" s="19"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="20"/>
+      <c r="G31" s="13"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
